--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users64\Karlo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users64\Karlo\Desktop\COLLEGE\Graduate Study\mastersresearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Lit Rev" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>ART ID</t>
   </si>
@@ -211,7 +211,22 @@
     <t>Discriminating cereal and pseudocereal species using a binary system</t>
   </si>
   <si>
-    <t>pattern recognition, binary GC-MS data, lipid profiling in food</t>
+    <t>pattern recognition, binary GC-MS data, lipid profiling in food, cluster analysis</t>
+  </si>
+  <si>
+    <t>adulteration detection systems in cerial and pseudocereal flours are feasible given the positive results</t>
+  </si>
+  <si>
+    <t>software development</t>
+  </si>
+  <si>
+    <t>Exploitation and Exploration Networks in Open Source Sofware Development: An Artefact-level analysis</t>
+  </si>
+  <si>
+    <t>hacking, network security</t>
+  </si>
+  <si>
+    <t>M2M Security Technology of CPS Based on Blockchains</t>
   </si>
 </sst>
 </file>
@@ -547,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -834,18 +849,36 @@
       <c r="E11" t="s">
         <v>54</v>
       </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
       <c r="I11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
       <c r="B13" s="1">
         <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
